--- a/Kardex/CHAN KOH DYLAN FERNANDO.xlsx
+++ b/Kardex/CHAN KOH DYLAN FERNANDO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rudyl\Descargas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b13018831d25970/Escritorio/Proyecto Terminal/Recomendaci-n-de-cargas-acad-micas-basado-en-optimizaci-n-multiobjetivo/Kardex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45668C89-5B68-430C-80D9-2776096F51C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{45668C89-5B68-430C-80D9-2776096F51C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA73246E-8A1C-4584-BD6C-36FE6A459995}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -1367,7 +1367,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1459,6 +1459,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1519,136 +1525,136 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="44">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="4" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="4" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="12"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="12"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="4" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="4" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="12"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="12"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -1991,15 +1997,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1"/>
-    <col min="2" max="2" width="64.109375" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="64.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" customWidth="1"/>
   </cols>
@@ -2014,1244 +2020,1244 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="24">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:7" ht="36">
+      <c r="B3" s="43" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:7" ht="25.5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="36"/>
+      <c r="G5" s="38"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="35">
         <v>201903</v>
       </c>
-      <c r="D6" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="11">
+      <c r="D6" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="10">
         <v>7</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>6</v>
       </c>
-      <c r="G6" s="36"/>
+      <c r="G6" s="38"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="35">
         <v>201903</v>
       </c>
-      <c r="D7" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="14">
+      <c r="D7" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="13">
         <v>7</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="13">
         <v>6</v>
       </c>
-      <c r="G7" s="36"/>
+      <c r="G7" s="38"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="35">
         <v>201903</v>
       </c>
-      <c r="D8" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="14">
+      <c r="D8" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="13">
         <v>5</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="13">
         <v>0</v>
       </c>
-      <c r="G8" s="36"/>
+      <c r="G8" s="38"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="35">
         <v>201903</v>
       </c>
-      <c r="D9" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="14">
+      <c r="D9" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="13">
         <v>8</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="13">
         <v>6</v>
       </c>
-      <c r="G9" s="36"/>
+      <c r="G9" s="38"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="35">
         <v>201903</v>
       </c>
-      <c r="D10" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="14">
+      <c r="D10" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="13">
         <v>7</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="13">
         <v>8</v>
       </c>
-      <c r="G10" s="36"/>
+      <c r="G10" s="38"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="35">
         <v>201903</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="14">
+      <c r="D11" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="13">
         <v>7</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="13">
         <v>6</v>
       </c>
-      <c r="G11" s="36"/>
+      <c r="G11" s="38"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="35">
         <v>201903</v>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="14">
+      <c r="D12" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="13">
         <v>8</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="13">
         <v>6</v>
       </c>
-      <c r="G12" s="36"/>
+      <c r="G12" s="38"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="35">
         <v>201903</v>
       </c>
-      <c r="D13" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="17" t="s">
+      <c r="D13" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="17">
         <v>0</v>
       </c>
-      <c r="G13" s="37"/>
+      <c r="G13" s="39"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="E14" s="20">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="E14" s="19">
         <v>7</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="20">
         <v>38</v>
       </c>
-      <c r="G14" s="19"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>202001</v>
       </c>
-      <c r="D15" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="14">
+      <c r="D15" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="13">
         <v>9</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="13">
         <v>6</v>
       </c>
-      <c r="G15" s="22"/>
+      <c r="G15" s="21"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>202001</v>
       </c>
-      <c r="D16" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="14">
+      <c r="D16" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="13">
         <v>3</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="13">
         <v>0</v>
       </c>
-      <c r="G16" s="22"/>
+      <c r="G16" s="21"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>202001</v>
       </c>
-      <c r="D17" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="14">
+      <c r="D17" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="13">
         <v>10</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="13">
         <v>6</v>
       </c>
-      <c r="G17" s="22"/>
+      <c r="G17" s="21"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>202001</v>
       </c>
-      <c r="D18" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="14">
+      <c r="D18" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="13">
         <v>6</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="13">
         <v>0</v>
       </c>
-      <c r="G18" s="22"/>
+      <c r="G18" s="21"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <v>202001</v>
       </c>
-      <c r="D19" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="14">
+      <c r="D19" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="13">
         <v>3</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="13">
         <v>0</v>
       </c>
-      <c r="G19" s="22"/>
+      <c r="G19" s="21"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <v>202001</v>
       </c>
-      <c r="D20" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="14">
+      <c r="D20" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="13">
         <v>8</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="13">
         <v>6</v>
       </c>
-      <c r="G20" s="22"/>
+      <c r="G20" s="21"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="11">
         <v>202001</v>
       </c>
-      <c r="D21" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="17" t="s">
+      <c r="D21" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="17">
         <v>0</v>
       </c>
-      <c r="G21" s="23"/>
+      <c r="G21" s="22"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="E22" s="20">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="E22" s="19">
         <v>6.5</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="20">
         <v>18</v>
       </c>
-      <c r="G22" s="19"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="11">
         <v>202003</v>
       </c>
-      <c r="D23" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="14">
+      <c r="D23" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="13">
         <v>9</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="13">
         <v>6</v>
       </c>
-      <c r="G23" s="22"/>
+      <c r="G23" s="21"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="11">
         <v>202003</v>
       </c>
-      <c r="D24" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="14">
+      <c r="D24" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="13">
         <v>7</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="13">
         <v>8</v>
       </c>
-      <c r="G24" s="22"/>
+      <c r="G24" s="21"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="11">
         <v>202003</v>
       </c>
-      <c r="D25" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="14">
+      <c r="D25" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="13">
         <v>9</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="13">
         <v>6</v>
       </c>
-      <c r="G25" s="22"/>
+      <c r="G25" s="21"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="11">
         <v>202003</v>
       </c>
-      <c r="D26" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="14">
+      <c r="D26" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="13">
         <v>9</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="13">
         <v>6</v>
       </c>
-      <c r="G26" s="22"/>
+      <c r="G26" s="21"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="11">
         <v>202003</v>
       </c>
-      <c r="D27" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="14">
+      <c r="D27" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="13">
         <v>10</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="13">
         <v>6</v>
       </c>
-      <c r="G27" s="22"/>
+      <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="11">
         <v>202003</v>
       </c>
-      <c r="D28" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="17" t="s">
+      <c r="D28" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="23"/>
+      <c r="G28" s="22"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="E29" s="20">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="E29" s="19">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="20">
         <v>32</v>
       </c>
-      <c r="G29" s="19"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="11">
         <v>202101</v>
       </c>
-      <c r="D30" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E30" s="14">
+      <c r="D30" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="13">
         <v>10</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30" s="13">
         <v>6</v>
       </c>
-      <c r="G30" s="22"/>
+      <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="11">
         <v>202101</v>
       </c>
-      <c r="D31" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E31" s="14">
+      <c r="D31" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="13">
         <v>7</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="13">
         <v>8</v>
       </c>
-      <c r="G31" s="22"/>
+      <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="11">
         <v>202101</v>
       </c>
-      <c r="D32" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E32" s="14">
+      <c r="D32" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="13">
         <v>7</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F32" s="13">
         <v>8</v>
       </c>
-      <c r="G32" s="22"/>
+      <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="11">
         <v>202101</v>
       </c>
-      <c r="D33" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E33" s="14">
+      <c r="D33" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="13">
         <v>10</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F33" s="13">
         <v>6</v>
       </c>
-      <c r="G33" s="22"/>
+      <c r="G33" s="21"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="11">
         <v>202101</v>
       </c>
-      <c r="D34" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" s="14">
+      <c r="D34" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="13">
         <v>0</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F34" s="13">
         <v>0</v>
       </c>
-      <c r="G34" s="24" t="s">
+      <c r="G34" s="23" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="11">
         <v>202101</v>
       </c>
-      <c r="D35" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35" s="17" t="s">
+      <c r="D35" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="17">
         <v>0</v>
       </c>
-      <c r="G35" s="23"/>
+      <c r="G35" s="22"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="E36" s="20">
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="E36" s="19">
         <v>6.8</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="20">
         <v>28</v>
       </c>
-      <c r="G36" s="19"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="11">
         <v>202103</v>
       </c>
-      <c r="D37" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E37" s="14">
+      <c r="D37" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="13">
         <v>9</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F37" s="13">
         <v>6</v>
       </c>
-      <c r="G37" s="22"/>
+      <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="11">
         <v>202103</v>
       </c>
-      <c r="D38" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E38" s="14">
+      <c r="D38" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" s="13">
         <v>9</v>
       </c>
-      <c r="F38" s="14">
+      <c r="F38" s="13">
         <v>6</v>
       </c>
-      <c r="G38" s="22"/>
+      <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="11">
         <v>202103</v>
       </c>
-      <c r="D39" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E39" s="14">
+      <c r="D39" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="13">
         <v>9</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F39" s="13">
         <v>6</v>
       </c>
-      <c r="G39" s="22"/>
+      <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="11">
         <v>202103</v>
       </c>
-      <c r="D40" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E40" s="14">
+      <c r="D40" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="13">
         <v>7</v>
       </c>
-      <c r="F40" s="14">
+      <c r="F40" s="13">
         <v>6</v>
       </c>
-      <c r="G40" s="22"/>
+      <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="11">
         <v>202103</v>
       </c>
-      <c r="D41" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E41" s="14">
+      <c r="D41" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" s="13">
         <v>0</v>
       </c>
-      <c r="F41" s="14">
+      <c r="F41" s="13">
         <v>0</v>
       </c>
-      <c r="G41" s="22"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="11">
         <v>202103</v>
       </c>
-      <c r="D42" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E42" s="14">
+      <c r="D42" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" s="13">
         <v>3</v>
       </c>
-      <c r="F42" s="14">
+      <c r="F42" s="13">
         <v>0</v>
       </c>
-      <c r="G42" s="22"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="11">
         <v>202103</v>
       </c>
-      <c r="D43" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E43" s="25" t="s">
+      <c r="D43" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F43" s="14">
+      <c r="F43" s="13">
         <v>0</v>
       </c>
-      <c r="G43" s="22"/>
+      <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="38"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="20">
+      <c r="A44" s="40"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="19">
         <v>6.17</v>
       </c>
-      <c r="F44" s="26">
+      <c r="F44" s="25">
         <v>24</v>
       </c>
-      <c r="G44" s="39"/>
+      <c r="G44" s="41"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C45" s="27">
+      <c r="C45" s="26">
         <v>202201</v>
       </c>
-      <c r="D45" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E45" s="14">
+      <c r="D45" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E45" s="13">
         <v>8</v>
       </c>
-      <c r="F45" s="28">
+      <c r="F45" s="27">
         <v>6</v>
       </c>
-      <c r="G45" s="36"/>
+      <c r="G45" s="38"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C46" s="27">
+      <c r="C46" s="26">
         <v>202201</v>
       </c>
-      <c r="D46" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E46" s="14">
+      <c r="D46" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E46" s="13">
         <v>8</v>
       </c>
-      <c r="F46" s="28">
+      <c r="F46" s="27">
         <v>6</v>
       </c>
-      <c r="G46" s="36"/>
+      <c r="G46" s="38"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C47" s="27">
+      <c r="C47" s="26">
         <v>202201</v>
       </c>
-      <c r="D47" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E47" s="14">
+      <c r="D47" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E47" s="13">
         <v>7</v>
       </c>
-      <c r="F47" s="28">
+      <c r="F47" s="27">
         <v>6</v>
       </c>
-      <c r="G47" s="36"/>
+      <c r="G47" s="38"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="27">
+      <c r="C48" s="26">
         <v>202201</v>
       </c>
-      <c r="D48" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E48" s="29">
+      <c r="D48" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E48" s="28">
         <v>10</v>
       </c>
-      <c r="F48" s="28">
+      <c r="F48" s="27">
         <v>6</v>
       </c>
-      <c r="G48" s="36"/>
+      <c r="G48" s="38"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C49" s="27">
+      <c r="C49" s="26">
         <v>202201</v>
       </c>
-      <c r="D49" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E49" s="14">
+      <c r="D49" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" s="13">
         <v>9</v>
       </c>
-      <c r="F49" s="28">
+      <c r="F49" s="27">
         <v>6</v>
       </c>
-      <c r="G49" s="36"/>
+      <c r="G49" s="38"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C50" s="30">
+      <c r="C50" s="29">
         <v>202201</v>
       </c>
-      <c r="D50" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E50" s="31">
+      <c r="D50" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E50" s="30">
         <v>10</v>
       </c>
-      <c r="F50" s="32">
+      <c r="F50" s="31">
         <v>6</v>
       </c>
-      <c r="G50" s="37"/>
+      <c r="G50" s="39"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="19"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="20">
+      <c r="A51" s="18"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="19">
         <v>8.67</v>
       </c>
-      <c r="F51" s="26">
+      <c r="F51" s="25">
         <v>36</v>
       </c>
-      <c r="G51" s="19"/>
+      <c r="G51" s="18"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C52" s="30">
+      <c r="C52" s="29">
         <v>202202</v>
       </c>
-      <c r="D52" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E52" s="18">
+      <c r="D52" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" s="17">
         <v>9</v>
       </c>
-      <c r="F52" s="32">
+      <c r="F52" s="31">
         <v>6</v>
       </c>
-      <c r="G52" s="23"/>
+      <c r="G52" s="22"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="19"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="20">
+      <c r="A53" s="18"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="19">
         <v>9</v>
       </c>
-      <c r="F53" s="26">
+      <c r="F53" s="25">
         <v>6</v>
       </c>
-      <c r="G53" s="19"/>
+      <c r="G53" s="18"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C54" s="27">
+      <c r="C54" s="26">
         <v>202203</v>
       </c>
-      <c r="D54" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E54" s="14">
+      <c r="D54" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E54" s="13">
         <v>9</v>
       </c>
-      <c r="F54" s="28">
+      <c r="F54" s="27">
         <v>6</v>
       </c>
-      <c r="G54" s="22"/>
+      <c r="G54" s="21"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C55" s="27">
+      <c r="C55" s="26">
         <v>202203</v>
       </c>
-      <c r="D55" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E55" s="14">
+      <c r="D55" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E55" s="13">
         <v>8</v>
       </c>
-      <c r="F55" s="28">
+      <c r="F55" s="27">
         <v>8</v>
       </c>
-      <c r="G55" s="22"/>
+      <c r="G55" s="21"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C56" s="27">
+      <c r="C56" s="26">
         <v>202203</v>
       </c>
-      <c r="D56" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E56" s="29">
+      <c r="D56" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E56" s="28">
         <v>10</v>
       </c>
-      <c r="F56" s="28">
+      <c r="F56" s="27">
         <v>6</v>
       </c>
-      <c r="G56" s="22"/>
+      <c r="G56" s="21"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C57" s="27">
+      <c r="C57" s="26">
         <v>202203</v>
       </c>
-      <c r="D57" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E57" s="14">
+      <c r="D57" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E57" s="13">
         <v>9</v>
       </c>
-      <c r="F57" s="28">
+      <c r="F57" s="27">
         <v>6</v>
       </c>
-      <c r="G57" s="22"/>
+      <c r="G57" s="21"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C58" s="30">
+      <c r="C58" s="29">
         <v>202203</v>
       </c>
-      <c r="D58" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E58" s="18">
+      <c r="D58" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E58" s="17">
         <v>9</v>
       </c>
-      <c r="F58" s="32">
+      <c r="F58" s="31">
         <v>6</v>
       </c>
-      <c r="G58" s="23"/>
+      <c r="G58" s="22"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="19"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="20">
+      <c r="A59" s="18"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="19">
         <v>9</v>
       </c>
-      <c r="F59" s="26">
+      <c r="F59" s="25">
         <v>32</v>
       </c>
-      <c r="G59" s="19"/>
+      <c r="G59" s="18"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C60" s="27">
+      <c r="C60" s="26">
         <v>202301</v>
       </c>
-      <c r="D60" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E60" s="22"/>
-      <c r="F60" s="28">
+      <c r="D60" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E60" s="21"/>
+      <c r="F60" s="27">
         <v>0</v>
       </c>
-      <c r="G60" s="22"/>
+      <c r="G60" s="21"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C61" s="27">
+      <c r="C61" s="26">
         <v>202301</v>
       </c>
-      <c r="D61" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E61" s="22"/>
-      <c r="F61" s="28">
+      <c r="D61" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E61" s="21"/>
+      <c r="F61" s="27">
         <v>0</v>
       </c>
-      <c r="G61" s="22"/>
+      <c r="G61" s="21"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C62" s="27">
+      <c r="C62" s="26">
         <v>202301</v>
       </c>
-      <c r="D62" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E62" s="22"/>
-      <c r="F62" s="28">
+      <c r="D62" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E62" s="21"/>
+      <c r="F62" s="27">
         <v>0</v>
       </c>
-      <c r="G62" s="22"/>
+      <c r="G62" s="21"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C63" s="27">
+      <c r="C63" s="26">
         <v>202301</v>
       </c>
-      <c r="D63" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E63" s="22"/>
-      <c r="F63" s="28">
+      <c r="D63" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E63" s="21"/>
+      <c r="F63" s="27">
         <v>0</v>
       </c>
-      <c r="G63" s="22"/>
+      <c r="G63" s="21"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C64" s="27">
+      <c r="C64" s="26">
         <v>202301</v>
       </c>
-      <c r="D64" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E64" s="22"/>
-      <c r="F64" s="28">
+      <c r="D64" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E64" s="21"/>
+      <c r="F64" s="27">
         <v>0</v>
       </c>
-      <c r="G64" s="22"/>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="9" t="s">
+      <c r="G64" s="21"/>
+    </row>
+    <row r="65" spans="1:7" ht="22.5">
+      <c r="A65" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C65" s="27">
+      <c r="C65" s="26">
         <v>202301</v>
       </c>
-      <c r="D65" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E65" s="22"/>
-      <c r="F65" s="28">
+      <c r="D65" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E65" s="21"/>
+      <c r="F65" s="27">
         <v>0</v>
       </c>
-      <c r="G65" s="13" t="s">
+      <c r="G65" s="12" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C66" s="30">
+      <c r="C66" s="29">
         <v>202301</v>
       </c>
-      <c r="D66" s="40" t="s">
+      <c r="D66" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="E66" s="40"/>
-      <c r="F66" s="40"/>
-      <c r="G66" s="40"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
     </row>
     <row r="67" spans="1:7" ht="36.75" customHeight="1">
-      <c r="A67" s="33" t="s">
+      <c r="A67" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="B67" s="34" t="s">
+      <c r="B67" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="C67" s="35">
+      <c r="C67" s="34">
         <v>214</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="30.6">
-      <c r="A68" s="13" t="s">
+    <row r="68" spans="1:7" ht="45">
+      <c r="A68" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B68" s="42" t="s">
+      <c r="B68" s="36" t="s">
         <v>112</v>
       </c>
       <c r="C68">
